--- a/Kingdoms task list.xlsx
+++ b/Kingdoms task list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Kingdoms Reborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB34762-2FC7-44FE-8A8C-D6A7B4AB5ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C3001-EAAA-45E4-AAEB-E73017296D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{180C6D1F-9060-4AA9-94A7-80DF8F9AF217}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -138,6 +138,39 @@
   </si>
   <si>
     <t>When an intangible has no builder, the particles stop and progress reverses</t>
+  </si>
+  <si>
+    <t>Right click while shift is down and the lines do not go away</t>
+  </si>
+  <si>
+    <t>Other commands: repair, patrol, guard</t>
+  </si>
+  <si>
+    <t>Set build cursor when hovering over intangible and at least one valid builder is selected. Clicking on an intangible when more than one unit is selected will send all selected valid builders to go to conjure that intangilble, else move to that adjusted navmesh hit point.</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Kinematic units have some small slowdown at the end of each movement</t>
+  </si>
+  <si>
+    <t>Finish applying sparkle-particles to all intangibles</t>
+  </si>
+  <si>
+    <t>Set initial totalManaStorage properly</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>Set the minimap icon sprite color to faction-color</t>
+  </si>
+  <si>
+    <t>For Later</t>
+  </si>
+  <si>
+    <t>Clear build on builder die</t>
   </si>
 </sst>
 </file>
@@ -161,15 +194,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -177,24 +222,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,233 +612,495 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B1420-E777-422E-B077-C4BF5D65C88F}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="109.7109375" style="3" customWidth="1"/>
-    <col min="2" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="109.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="2" customWidth="1"/>
+    <col min="3" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="15"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="15"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D25" s="8"/>
+      <c r="E25" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E29" s="15"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="15"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="15"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="B1:B27"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Kingdoms task list.xlsx
+++ b/Kingdoms task list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Kingdoms Reborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820C3001-EAAA-45E4-AAEB-E73017296D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C9147-E423-4412-9950-3A8ECA4486D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{180C6D1F-9060-4AA9-94A7-80DF8F9AF217}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,9 +714,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="14"/>
-      <c r="E6" s="15" t="s">
-        <v>19</v>
-      </c>
+      <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
@@ -815,17 +813,17 @@
       <c r="E14" s="15"/>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Kingdoms task list.xlsx
+++ b/Kingdoms task list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Kingdoms Reborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C9147-E423-4412-9950-3A8ECA4486D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A35A9-CB7A-430E-8D7E-61AFBB5D8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{180C6D1F-9060-4AA9-94A7-80DF8F9AF217}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
   <si>
     <t>Task</t>
   </si>
@@ -171,6 +171,21 @@
   </si>
   <si>
     <t>Clear build on builder die</t>
+  </si>
+  <si>
+    <t>UI on hover over corpse</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>When multiple units are selected, UI should show nothing</t>
+  </si>
+  <si>
+    <t>Handle friendly fire</t>
+  </si>
+  <si>
+    <t>Make arrow projectiles travel in an arc</t>
   </si>
 </sst>
 </file>
@@ -614,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2B1420-E777-422E-B077-C4BF5D65C88F}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,28 +1027,42 @@
       <c r="E31" s="15"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="B32" s="13"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+      <c r="D32" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E32" s="15"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="B33" s="13"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="13" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
+      <c r="C34" s="14" t="s">
+        <v>9</v>
+      </c>
       <c r="D34" s="14"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="B35" s="13"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>

--- a/Kingdoms task list.xlsx
+++ b/Kingdoms task list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity\Kingdoms Reborn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A35A9-CB7A-430E-8D7E-61AFBB5D8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3229CD69-6EDF-4DCF-A529-3F53321F7306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{180C6D1F-9060-4AA9-94A7-80DF8F9AF217}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>Make arrow projectiles travel in an arc</t>
+  </si>
+  <si>
+    <t>Implement fires for cabal and other buildings</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1072,9 @@
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="13" t="s">
+        <v>50</v>
+      </c>
       <c r="B36" s="13"/>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
